--- a/Data/Pages/dlgAutomobileInsurance_pagProductData.xlsx
+++ b/Data/Pages/dlgAutomobileInsurance_pagProductData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\PycharmProjects\OnTop\Data\Pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20570BAC-E93F-4AC7-AE66-1314F13125D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C854760D-31DD-4EE1-96AE-CD0592702DFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1428" yWindow="744" windowWidth="34500" windowHeight="15768" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
+    <workbookView xWindow="2484" yWindow="696" windowWidth="35280" windowHeight="15732" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
   <si>
     <t>Check defaults</t>
   </si>
@@ -42,28 +42,82 @@
     <t>calStartDate</t>
   </si>
   <si>
-    <t>comInsuranceSum</t>
-  </si>
-  <si>
-    <t>comMeritRating</t>
-  </si>
-  <si>
-    <t>comDamageInsurance</t>
-  </si>
-  <si>
     <t>chkOptionalProductEuroProtection</t>
   </si>
   <si>
     <t>chkOptionalProductLegalDefenseInsurance</t>
   </si>
   <si>
-    <t>comCourtesyCar</t>
-  </si>
-  <si>
     <t>VIA_Chromium</t>
   </si>
   <si>
     <t>VIA_Pixel9Pro_API35</t>
+  </si>
+  <si>
+    <t>selInsuranceSum</t>
+  </si>
+  <si>
+    <t>selMeritRating</t>
+  </si>
+  <si>
+    <t>selDamageInsurance</t>
+  </si>
+  <si>
+    <t>selCourtesyCar</t>
+  </si>
+  <si>
+    <t>10.000.000,00</t>
+  </si>
+  <si>
+    <t>Bonus 5</t>
+  </si>
+  <si>
+    <t>Partial Coverage</t>
+  </si>
+  <si>
+    <t>&lt;CHECK&gt;</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>&lt;UNCHECKED&gt;</t>
+  </si>
+  <si>
+    <t>102_VehicleInsuranceAutomobile_001_SmokeTest_FillPage</t>
+  </si>
+  <si>
+    <t>text="Euro Protection"</t>
+  </si>
+  <si>
+    <t>text="Legal Defense Insurance"</t>
+  </si>
+  <si>
+    <t>id=startdate</t>
+  </si>
+  <si>
+    <t>id=insurancesum</t>
+  </si>
+  <si>
+    <t>id=meritrating</t>
+  </si>
+  <si>
+    <t>id=damageinsurance</t>
+  </si>
+  <si>
+    <t>id=courtesycar</t>
+  </si>
+  <si>
+    <t>id=preventerinsurancedata</t>
+  </si>
+  <si>
+    <t>id=nextselectpriceoption</t>
+  </si>
+  <si>
+    <t>05/01/2025</t>
   </si>
 </sst>
 </file>
@@ -87,7 +141,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -97,6 +151,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -113,10 +173,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -139,15 +200,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>167640</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>99338</xdr:rowOff>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>23138</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1333500</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>168609</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>845820</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>92409</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -170,7 +231,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="167640" y="1013738"/>
+          <a:off x="106680" y="1303298"/>
           <a:ext cx="10622280" cy="6104311"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -480,33 +541,71 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82737E07-8287-4E6B-9130-6C87B574EFB8}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.21875" customWidth="1"/>
-    <col min="2" max="2" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="18.109375" customWidth="1"/>
-    <col min="6" max="7" width="20.5546875" customWidth="1"/>
-    <col min="8" max="8" width="22.77734375" customWidth="1"/>
-    <col min="9" max="9" width="12.109375" customWidth="1"/>
-    <col min="10" max="10" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="50" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="37.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>12</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
@@ -516,22 +615,22 @@
         <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="H3" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>3</v>
@@ -541,8 +640,43 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>0</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Pages/dlgAutomobileInsurance_pagProductData.xlsx
+++ b/Data/Pages/dlgAutomobileInsurance_pagProductData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\PycharmProjects\OnTop\Data\Pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C854760D-31DD-4EE1-96AE-CD0592702DFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DC423A2-585E-408F-9CBE-3477B6FA350C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2484" yWindow="696" windowWidth="35280" windowHeight="15732" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
+    <workbookView xWindow="11292" yWindow="2868" windowWidth="22560" windowHeight="12480" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -87,9 +87,6 @@
     <t>&lt;UNCHECKED&gt;</t>
   </si>
   <si>
-    <t>102_VehicleInsuranceAutomobile_001_SmokeTest_FillPage</t>
-  </si>
-  <si>
     <t>text="Euro Protection"</t>
   </si>
   <si>
@@ -118,6 +115,9 @@
   </si>
   <si>
     <t>05/01/2025</t>
+  </si>
+  <si>
+    <t>102_AutomobileInsurance_001_SmokeTest_FillPage</t>
   </si>
 </sst>
 </file>
@@ -544,7 +544,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -566,31 +566,31 @@
         <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -652,10 +652,10 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>13</v>

--- a/Data/Pages/dlgAutomobileInsurance_pagProductData.xlsx
+++ b/Data/Pages/dlgAutomobileInsurance_pagProductData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\PycharmProjects\OnTop\Data\Pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DC423A2-585E-408F-9CBE-3477B6FA350C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D8D36BA-8E9C-4FCF-818C-66BE0D58AF81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11292" yWindow="2868" windowWidth="22560" windowHeight="12480" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="39024" windowHeight="14352" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
   <si>
     <t>Check defaults</t>
   </si>
@@ -81,9 +81,6 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>X</t>
-  </si>
-  <si>
     <t>&lt;UNCHECKED&gt;</t>
   </si>
   <si>
@@ -93,21 +90,6 @@
     <t>text="Legal Defense Insurance"</t>
   </si>
   <si>
-    <t>id=startdate</t>
-  </si>
-  <si>
-    <t>id=insurancesum</t>
-  </si>
-  <si>
-    <t>id=meritrating</t>
-  </si>
-  <si>
-    <t>id=damageinsurance</t>
-  </si>
-  <si>
-    <t>id=courtesycar</t>
-  </si>
-  <si>
     <t>id=preventerinsurancedata</t>
   </si>
   <si>
@@ -118,6 +100,39 @@
   </si>
   <si>
     <t>102_AutomobileInsurance_001_SmokeTest_FillPage</t>
+  </si>
+  <si>
+    <t>&lt;MissingMandatoryField&gt;</t>
+  </si>
+  <si>
+    <t>Product Page check for open mandatory fields</t>
+  </si>
+  <si>
+    <t>grpOptionalProducts</t>
+  </si>
+  <si>
+    <t>//label[text()="Optional Products"]/parent::*/*[@class="group"]</t>
+  </si>
+  <si>
+    <t>//*[@id='startdate']</t>
+  </si>
+  <si>
+    <t>//*[@id='insurancesum']</t>
+  </si>
+  <si>
+    <t>//*[@id='meritrating']</t>
+  </si>
+  <si>
+    <t>//*[@id='damageinsurance']</t>
+  </si>
+  <si>
+    <t>//*[@id='courtesycar']</t>
+  </si>
+  <si>
+    <t>Product Page check for filled mandatory fields</t>
+  </si>
+  <si>
+    <t>&lt;FilledMandatoryField&gt;</t>
   </si>
 </sst>
 </file>
@@ -200,15 +215,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>106680</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>23138</xdr:rowOff>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>53618</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>845820</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>92409</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>693420</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>122889</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -231,7 +246,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="106680" y="1303298"/>
+          <a:off x="68580" y="1699538"/>
           <a:ext cx="10622280" cy="6104311"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -541,59 +556,62 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82737E07-8287-4E6B-9130-6C87B574EFB8}">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="50" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="18.109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20.5546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="37.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.5546875" style="1"/>
+    <col min="2" max="4" width="22" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.77734375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="54.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.5546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="37.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>28</v>
-      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -606,8 +624,9 @@
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
     </row>
-    <row r="3" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -624,38 +643,41 @@
         <v>11</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="G4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>13</v>
@@ -666,17 +688,60 @@
       <c r="E5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="G5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>18</v>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Pages/dlgAutomobileInsurance_pagProductData.xlsx
+++ b/Data/Pages/dlgAutomobileInsurance_pagProductData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\PycharmProjects\OnTop\Data\Pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D8D36BA-8E9C-4FCF-818C-66BE0D58AF81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA41BEA0-558C-4C3F-93BE-46236D6EEB13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="39024" windowHeight="14352" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
+    <workbookView xWindow="1272" yWindow="2928" windowWidth="40008" windowHeight="14352" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="48">
   <si>
     <t>Check defaults</t>
   </si>
@@ -133,6 +133,42 @@
   </si>
   <si>
     <t>&lt;FilledMandatoryField&gt;</t>
+  </si>
+  <si>
+    <t>Product Page check for hints regarding mandatory fields</t>
+  </si>
+  <si>
+    <t>&lt;HINT Select an option&gt;</t>
+  </si>
+  <si>
+    <t>&lt;HINT This field is mandatory&gt;</t>
+  </si>
+  <si>
+    <t>&lt;HINT Select at least 1 options&gt;</t>
+  </si>
+  <si>
+    <t>0815</t>
+  </si>
+  <si>
+    <t>Product Page check for hint date with invalid format</t>
+  </si>
+  <si>
+    <t>&lt;HINT Must be a valid date&gt;</t>
+  </si>
+  <si>
+    <t>01/01/2000</t>
+  </si>
+  <si>
+    <t>Product Page check for hint date with invalid value in past</t>
+  </si>
+  <si>
+    <t>&lt;HINT Must be more than one month in the future&gt;</t>
+  </si>
+  <si>
+    <t>Product Page enter date with invalid format</t>
+  </si>
+  <si>
+    <t>Product Page enter date with invalid value in past</t>
   </si>
 </sst>
 </file>
@@ -216,14 +252,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>68580</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>53618</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>106958</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>693420</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>122889</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1264920</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>176229</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -246,7 +282,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="68580" y="1699538"/>
+          <a:off x="68580" y="2484398"/>
           <a:ext cx="10622280" cy="6104311"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -556,16 +592,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82737E07-8287-4E6B-9130-6C87B574EFB8}">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="50" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="22" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="22" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29.77734375" style="1" customWidth="1"/>
     <col min="6" max="6" width="54.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.5546875" style="1" customWidth="1"/>
@@ -744,6 +781,61 @@
         <v>35</v>
       </c>
     </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Data/Pages/dlgAutomobileInsurance_pagProductData.xlsx
+++ b/Data/Pages/dlgAutomobileInsurance_pagProductData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\PycharmProjects\OnTop\Data\Pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA41BEA0-558C-4C3F-93BE-46236D6EEB13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89740ED1-0E80-45A4-836F-0A88699061F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1272" yWindow="2928" windowWidth="40008" windowHeight="14352" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
+    <workbookView xWindow="2748" yWindow="300" windowWidth="31740" windowHeight="14352" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="50">
   <si>
     <t>Check defaults</t>
   </si>
@@ -96,9 +96,6 @@
     <t>id=nextselectpriceoption</t>
   </si>
   <si>
-    <t>05/01/2025</t>
-  </si>
-  <si>
     <t>102_AutomobileInsurance_001_SmokeTest_FillPage</t>
   </si>
   <si>
@@ -169,6 +166,15 @@
   </si>
   <si>
     <t>Product Page enter date with invalid value in past</t>
+  </si>
+  <si>
+    <t>06/01/2025</t>
+  </si>
+  <si>
+    <t>old_102_AutomobileInsurance_001_SmokeTest_FillPage</t>
+  </si>
+  <si>
+    <t>&lt;TODAY +32,+0,+0,'%m/%d/%Y'&gt;</t>
   </si>
 </sst>
 </file>
@@ -192,7 +198,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -211,6 +217,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -224,11 +236,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -252,13 +265,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>68580</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>106958</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1264920</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>176229</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -592,10 +605,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82737E07-8287-4E6B-9130-6C87B574EFB8}">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -618,19 +631,19 @@
         <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>19</v>
@@ -639,7 +652,7 @@
         <v>20</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>21</v>
@@ -680,7 +693,7 @@
         <v>11</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>5</v>
@@ -709,131 +722,157 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="1" t="s">
+    <row r="5" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="B6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="D9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="1" t="s">
+      <c r="I9" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" s="1" t="s">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="B13" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Pages/dlgAutomobileInsurance_pagProductData.xlsx
+++ b/Data/Pages/dlgAutomobileInsurance_pagProductData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\PycharmProjects\OnTop\Data\Pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89740ED1-0E80-45A4-836F-0A88699061F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8C5A535-7A34-4041-A79A-E59E93FD1322}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2748" yWindow="300" windowWidth="31740" windowHeight="14352" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
+    <workbookView xWindow="3840" yWindow="1608" windowWidth="36948" windowHeight="15672" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -608,7 +608,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Data/Pages/dlgAutomobileInsurance_pagProductData.xlsx
+++ b/Data/Pages/dlgAutomobileInsurance_pagProductData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\PycharmProjects\OnTop\Data\Pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8C5A535-7A34-4041-A79A-E59E93FD1322}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE0F8920-F103-45D7-881D-AE2F0B4DCBBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3840" yWindow="1608" windowWidth="36948" windowHeight="15672" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
+    <workbookView xWindow="3444" yWindow="1248" windowWidth="35136" windowHeight="13680" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -608,7 +608,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
